--- a/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 38,62</t>
+          <t>26,09; 37,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 29,32</t>
+          <t>20,04; 29,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,02; 33,19</t>
+          <t>25,17; 33,44</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,62; 39,29</t>
+          <t>27,7; 39,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 35,81</t>
+          <t>23,2; 34,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,92; 36,21</t>
+          <t>27,93; 36,18</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 41,75</t>
+          <t>4,17; 41,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 37,66</t>
+          <t>23,54; 37,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 38,81</t>
+          <t>5,62; 38,62</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,98; 45,76</t>
+          <t>37,97; 46,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,26; 40,37</t>
+          <t>6,4; 40,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 41,88</t>
+          <t>14,35; 41,84</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,03; 49,8</t>
+          <t>36,9; 50,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,73; 40,32</t>
+          <t>32,65; 40,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,59; 42,61</t>
+          <t>35,9; 42,73</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 39,74</t>
+          <t>8,42; 42,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,95; 55,77</t>
+          <t>41,54; 55,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,92; 52,37</t>
+          <t>38,46; 52,53</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,91; 38,77</t>
+          <t>19,17; 38,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,68; 37,96</t>
+          <t>15,91; 37,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,83; 37,22</t>
+          <t>23,38; 37,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas durante las cuales se echan la siesta en minutos</t>
+          <t>Nº medio de minutos durante los cuales la población se echa la siesta</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
